--- a/data/trans_dic/POLIPATOLOGIA_2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_2-Edad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01271868397893994</v>
+        <v>0.0127489094320702</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01681298693073505</v>
+        <v>0.01664211098491037</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02161916383397727</v>
+        <v>0.02183460811412171</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0639637796725232</v>
+        <v>0.06624980050712716</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.05836625105659877</v>
+        <v>0.05439543170497015</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.07328695329194825</v>
+        <v>0.07406219058667725</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.06861299850886478</v>
+        <v>0.06922859926932441</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1491299053606341</v>
+        <v>0.1513445042455643</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03770743997592221</v>
+        <v>0.03803850776948652</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.04940823694504803</v>
+        <v>0.04747128245774589</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.05024835704017801</v>
+        <v>0.0485011429201541</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1151263571216184</v>
+        <v>0.1167885359361895</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04237869249942885</v>
+        <v>0.04018532141411939</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04793173613078355</v>
+        <v>0.04802245268615939</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05828742310920779</v>
+        <v>0.06050577193982662</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1752386353056987</v>
+        <v>0.1694741842346188</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1040143264370382</v>
+        <v>0.1028341089558192</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1304472141742205</v>
+        <v>0.1295252232498401</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1277983276811364</v>
+        <v>0.1256435023514356</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2683706251529837</v>
+        <v>0.2716425280737068</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0660675109605745</v>
+        <v>0.0638093284447554</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.0814980724894282</v>
+        <v>0.07942572331510107</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.08569559791420332</v>
+        <v>0.08324557827628815</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.193971967202048</v>
+        <v>0.1932261027991094</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0310967237261118</v>
+        <v>0.03012294978466037</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05168946753820016</v>
+        <v>0.05243678466159453</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04149697861048196</v>
+        <v>0.04204193484229978</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.08324397898552083</v>
+        <v>0.08150074271784724</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.121070455533717</v>
+        <v>0.1211134546172012</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.09120627902198873</v>
+        <v>0.09173364200097577</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.09361527305435088</v>
+        <v>0.09553370076283255</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1830741211382886</v>
+        <v>0.1798996503011514</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.07642127469708723</v>
+        <v>0.07740005269058294</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.07604554003718945</v>
+        <v>0.07701614470760977</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.07332528787586653</v>
+        <v>0.0738544285811298</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1433729620828366</v>
+        <v>0.1420208357258078</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06326743456190188</v>
+        <v>0.06302057985803565</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09313380943844218</v>
+        <v>0.09411605575811886</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.08562699083008669</v>
+        <v>0.08304146634745349</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1554283510983583</v>
+        <v>0.1521608561311852</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1770941432912858</v>
+        <v>0.1774124364863347</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.143347472484355</v>
+        <v>0.1453434673608975</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1467996752886897</v>
+        <v>0.1479368015036148</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.256083644953259</v>
+        <v>0.254802088601484</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1085392573395514</v>
+        <v>0.1086611055764859</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1105788787857315</v>
+        <v>0.110204210028459</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1063024902956884</v>
+        <v>0.1075342749513429</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1960034314946036</v>
+        <v>0.1975311213953332</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.1641089218267975</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2836969847866209</v>
+        <v>0.283696984786621</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.1426308965127185</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.07334422283078935</v>
+        <v>0.07387651616233205</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07853766904017881</v>
+        <v>0.07998956549843254</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.07112773614196172</v>
+        <v>0.07229818917888514</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1112274347352651</v>
+        <v>0.1102499661738662</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1571308574665518</v>
+        <v>0.1572100450259798</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2010908509023383</v>
+        <v>0.2015924682861453</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1374957463598385</v>
+        <v>0.1397728488034559</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2521019055674325</v>
+        <v>0.2531758904255608</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1252641946554833</v>
+        <v>0.1227123976245661</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1482673821096376</v>
+        <v>0.1489510507083254</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1112216674810669</v>
+        <v>0.1118561296354574</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1901294029811255</v>
+        <v>0.1904164428398655</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1186450671033654</v>
+        <v>0.1192984313586596</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1237490009404604</v>
+        <v>0.1251797172271978</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1159931390082923</v>
+        <v>0.1181304591098552</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1717481393879829</v>
+        <v>0.1701172891806524</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2191176271659288</v>
+        <v>0.2161280334633575</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2656504119764495</v>
+        <v>0.2673794591599992</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1962714500131043</v>
+        <v>0.196930949715549</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3155649710944154</v>
+        <v>0.3138965901633798</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1630485165433956</v>
+        <v>0.162356650943509</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1907442019365705</v>
+        <v>0.1914193060980514</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1461456789405891</v>
+        <v>0.1468752324444328</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2336183916568235</v>
+        <v>0.2322306618777894</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.2678853649059077</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.368454797760687</v>
+        <v>0.3684547977606871</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1282918095920193</v>
+        <v>0.1251474253032909</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1335775171623388</v>
+        <v>0.1351914622046208</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1884758538960432</v>
+        <v>0.1850880585488267</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.266100814641139</v>
+        <v>0.2701149367435771</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2535935120911664</v>
+        <v>0.2510529829588592</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2915890757960601</v>
+        <v>0.2927186471188177</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2823857444385461</v>
+        <v>0.2830658088123342</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.4031997641279594</v>
+        <v>0.4024965947340544</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1989925821301401</v>
+        <v>0.1981210551472485</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2188599931252201</v>
+        <v>0.2202146811989459</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2439182493475202</v>
+        <v>0.2431462082880312</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3440972381500076</v>
+        <v>0.345135855210988</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1955446616749041</v>
+        <v>0.19139906736243</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1972131742402831</v>
+        <v>0.1966431002281659</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2542442337613832</v>
+        <v>0.2539660846101281</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3358562359730502</v>
+        <v>0.3372342161621807</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3327917509031239</v>
+        <v>0.3321585264983047</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3695496986212803</v>
+        <v>0.3708502477025186</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3577054779678105</v>
+        <v>0.3541636028062394</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4612285558430387</v>
+        <v>0.4569860398565022</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2498141743934141</v>
+        <v>0.2514112732616163</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2714645629723124</v>
+        <v>0.2732958365056915</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2941568496187211</v>
+        <v>0.2929140763590122</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3904330801027165</v>
+        <v>0.3932463333837533</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.5445216138099462</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.564243268581192</v>
+        <v>0.5642432685811921</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.469288753738948</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3715986097263109</v>
+        <v>0.3721417278814004</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3574336218082765</v>
+        <v>0.3600521834753608</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3271031208577665</v>
+        <v>0.3241175711376642</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.4239324645883233</v>
+        <v>0.4250702538435721</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.4658524751621462</v>
+        <v>0.4687356287403859</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.547566078471731</v>
+        <v>0.5639392070122027</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.4995770098122645</v>
+        <v>0.5000525104573202</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.531295136155025</v>
+        <v>0.53282176618299</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.4344615201999703</v>
+        <v>0.4356249478064038</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.4738380090198081</v>
+        <v>0.4763006281264519</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.4263023216379594</v>
+        <v>0.4245797446203535</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.4868151955783028</v>
+        <v>0.4828699796151625</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4687232453886724</v>
+        <v>0.4701955672465055</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4598152691378569</v>
+        <v>0.4619105142531853</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.420037561034054</v>
+        <v>0.4141264582621736</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4973477713325403</v>
+        <v>0.4980665355884201</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5654542174341615</v>
+        <v>0.563578929231596</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6497488892384879</v>
+        <v>0.6580670714621558</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.5934372108016673</v>
+        <v>0.5915659465513512</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5973819556596645</v>
+        <v>0.5940896073143896</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.5047394523135069</v>
+        <v>0.5093728568508155</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.5442270458341877</v>
+        <v>0.5463219423956596</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.4922922040855968</v>
+        <v>0.4918432164447151</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.5373780913497411</v>
+        <v>0.536721856302529</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.6984006767135601</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.7185917656523055</v>
+        <v>0.7185917656523053</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.6304131997740986</v>
@@ -1377,7 +1377,7 @@
         <v>0.6372655735576658</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.6470285522659877</v>
+        <v>0.6470285522659878</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.4673096462430839</v>
+        <v>0.4698529784110196</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.6569202640620326</v>
+        <v>0.6640172163185306</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.5152186336646901</v>
+        <v>0.516599900115857</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.5298568128522438</v>
+        <v>0.5257197368546017</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.6722756996931126</v>
+        <v>0.6792282246780763</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.7198208304610265</v>
+        <v>0.7178301916539335</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.6523877768147396</v>
+        <v>0.6447624550901264</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.6876947403544609</v>
+        <v>0.6856414560487949</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.5933081776234773</v>
+        <v>0.5929150246646886</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.7089077558268903</v>
+        <v>0.7082024956376737</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.5974988045510832</v>
+        <v>0.6024224296628454</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.6208912451926495</v>
+        <v>0.6189247243236904</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.5776913041690037</v>
+        <v>0.5807183681562521</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.7657897813706822</v>
+        <v>0.7710950241828601</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.6231504010450762</v>
+        <v>0.6234023755056497</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.6128389855899394</v>
+        <v>0.6063733574209206</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.7629830330426959</v>
+        <v>0.7681166132353542</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.8089489079247544</v>
+        <v>0.8124455024887082</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.7449104098800254</v>
+        <v>0.7443979352969886</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.746468581756206</v>
+        <v>0.7464053034137464</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.664044820211802</v>
+        <v>0.6660628299115181</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.7786794327153034</v>
+        <v>0.7777148467075465</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.6733652850036664</v>
+        <v>0.6760933231545848</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.6740762684201744</v>
+        <v>0.6711237850131542</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.7825695525852744</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.7974730838986895</v>
+        <v>0.7974730838986894</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.6284097180596679</v>
+        <v>0.6277698862549043</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.7681295444689336</v>
+        <v>0.7592215383032114</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.6832233534352626</v>
+        <v>0.6897867776022764</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.699891506449504</v>
+        <v>0.7024686888893731</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.7578622176133497</v>
+        <v>0.7602676090359151</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.8650481295855471</v>
+        <v>0.8671217664701552</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.7641986725768233</v>
+        <v>0.7576148286102221</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.8041362520357473</v>
+        <v>0.8040566247383171</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.7226074112495864</v>
+        <v>0.724348165969392</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.8396433233984371</v>
+        <v>0.8392871333707572</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.7498280432356613</v>
+        <v>0.745454633796689</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.7729105463446246</v>
+        <v>0.7744317579157189</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7511749349629958</v>
+        <v>0.7533347100126973</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8712298839698077</v>
+        <v>0.8631887527569587</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7859736535669701</v>
+        <v>0.7895574435650218</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7864954074228858</v>
+        <v>0.7870332033643368</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.8500734148341226</v>
+        <v>0.8469510325819292</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.9286194070913932</v>
+        <v>0.9298475856421918</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.8523301981222406</v>
+        <v>0.8527768025038196</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.8580757406404586</v>
+        <v>0.8560978001562216</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.7979964583072041</v>
+        <v>0.797219482800787</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.8936477461951403</v>
+        <v>0.8965613747182126</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.8162451780528821</v>
+        <v>0.814195864946234</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.8195256170524474</v>
+        <v>0.8208071311334736</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1836902442071196</v>
+        <v>0.183963270024117</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2285916501713468</v>
+        <v>0.2277489814157754</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.224005101273313</v>
+        <v>0.2251017382393446</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.3074551715711908</v>
+        <v>0.3057504173086999</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.3187980497467797</v>
+        <v>0.3188083237191427</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.3691360209666502</v>
+        <v>0.3705269174170019</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.3443184172949922</v>
+        <v>0.3421775869072018</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.4467535595557532</v>
+        <v>0.4474530844938493</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.2560107588528546</v>
+        <v>0.2575965742536874</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.3043682720939518</v>
+        <v>0.3044697620063027</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.2884601761554669</v>
+        <v>0.2902112413715754</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.3818879201369373</v>
+        <v>0.3817487654082554</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2110368303081016</v>
+        <v>0.211719058118747</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2593592738880337</v>
+        <v>0.2592995930426619</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2540258005607766</v>
+        <v>0.2533845174307455</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.3398893028249449</v>
+        <v>0.3387709262693741</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.3507406700124574</v>
+        <v>0.3509144351144274</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.4030172168320776</v>
+        <v>0.4035991487437324</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.3778455722336492</v>
+        <v>0.3768463126128068</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.4752806776127179</v>
+        <v>0.4756974563710953</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.2784414872857595</v>
+        <v>0.2784729992324192</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.3276272681179413</v>
+        <v>0.3272453369934935</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.3122488336970831</v>
+        <v>0.31180790888157</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.4047081461397947</v>
+        <v>0.4041744898064048</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>6284</v>
+        <v>6299</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>7636</v>
+        <v>7558</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>9068</v>
+        <v>9159</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>26084</v>
+        <v>27016</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>27286</v>
+        <v>25429</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>31530</v>
+        <v>31864</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>27154</v>
+        <v>27398</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>54061</v>
+        <v>54864</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>36258</v>
+        <v>36576</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>43695</v>
+        <v>41982</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>40963</v>
+        <v>39539</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>88682</v>
+        <v>89963</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>20938</v>
+        <v>19854</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>21768</v>
+        <v>21809</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>24449</v>
+        <v>25380</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>71461</v>
+        <v>69110</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>48626</v>
+        <v>48074</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>56122</v>
+        <v>55726</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>50577</v>
+        <v>49724</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>97288</v>
+        <v>98474</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>63527</v>
+        <v>61356</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>72075</v>
+        <v>70242</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>69861</v>
+        <v>67863</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>149418</v>
+        <v>148843</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>22871</v>
+        <v>22155</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>35515</v>
+        <v>36029</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>24504</v>
+        <v>24826</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>39698</v>
+        <v>38867</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>75729</v>
+        <v>75756</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>55659</v>
+        <v>55981</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>52756</v>
+        <v>53837</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>91854</v>
+        <v>90262</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>104008</v>
+        <v>105340</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>98657</v>
+        <v>99916</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>84620</v>
+        <v>85231</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>140308</v>
+        <v>138985</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>46533</v>
+        <v>46351</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>63991</v>
+        <v>64666</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>50562</v>
+        <v>49036</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>74122</v>
+        <v>72564</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>110771</v>
+        <v>110970</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>87479</v>
+        <v>88697</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>82728</v>
+        <v>83369</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>128486</v>
+        <v>127843</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>147720</v>
+        <v>147886</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>143459</v>
+        <v>142973</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>122677</v>
+        <v>124099</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>191813</v>
+        <v>193308</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>46843</v>
+        <v>47183</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>53552</v>
+        <v>54542</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>47591</v>
+        <v>48375</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>69054</v>
+        <v>68447</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>108380</v>
+        <v>108435</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>142945</v>
+        <v>143302</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>90938</v>
+        <v>92444</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>157108</v>
+        <v>157777</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>166402</v>
+        <v>163013</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>206494</v>
+        <v>207446</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>147979</v>
+        <v>148823</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>236526</v>
+        <v>236884</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>75775</v>
+        <v>76192</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>84380</v>
+        <v>85355</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>77611</v>
+        <v>79041</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>106628</v>
+        <v>105615</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>151135</v>
+        <v>149073</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>188838</v>
+        <v>190067</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>129811</v>
+        <v>130247</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>196658</v>
+        <v>195618</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>216596</v>
+        <v>215677</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>265652</v>
+        <v>266592</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>194444</v>
+        <v>195415</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>290628</v>
+        <v>288902</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>66602</v>
+        <v>64970</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>82099</v>
+        <v>83091</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>121764</v>
+        <v>119576</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>186435</v>
+        <v>189247</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>130763</v>
+        <v>129453</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>179677</v>
+        <v>180373</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>183290</v>
+        <v>183732</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>297112</v>
+        <v>296594</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>205915</v>
+        <v>205013</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>269376</v>
+        <v>271044</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>315905</v>
+        <v>314905</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>494641</v>
+        <v>496134</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>101516</v>
+        <v>99364</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>121211</v>
+        <v>120860</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>164254</v>
+        <v>164074</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>235307</v>
+        <v>236272</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>171601</v>
+        <v>171275</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>227716</v>
+        <v>228518</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>232178</v>
+        <v>229879</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>339873</v>
+        <v>336747</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>258505</v>
+        <v>260158</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>334123</v>
+        <v>336377</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>380970</v>
+        <v>379360</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>561249</v>
+        <v>565293</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>143701</v>
+        <v>143911</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>153492</v>
+        <v>154617</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>156328</v>
+        <v>154902</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>258322</v>
+        <v>259015</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>188198</v>
+        <v>189363</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>245200</v>
+        <v>252532</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>248214</v>
+        <v>248451</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>323482</v>
+        <v>324411</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>343527</v>
+        <v>344447</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>415664</v>
+        <v>417825</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>415545</v>
+        <v>413866</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>593039</v>
+        <v>588233</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>181260</v>
+        <v>181829</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>197458</v>
+        <v>198358</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>200744</v>
+        <v>197918</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>303057</v>
+        <v>303495</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>228436</v>
+        <v>227678</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>290958</v>
+        <v>294682</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>294849</v>
+        <v>293919</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>363719</v>
+        <v>361714</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>399095</v>
+        <v>402759</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>477412</v>
+        <v>479249</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>479870</v>
+        <v>479433</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>654635</v>
+        <v>653836</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>136727</v>
+        <v>137471</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>203505</v>
+        <v>205703</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>172253</v>
+        <v>172715</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>215694</v>
+        <v>214010</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>230546</v>
+        <v>232930</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>254814</v>
+        <v>254109</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>246447</v>
+        <v>243567</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>302012</v>
+        <v>301110</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>377057</v>
+        <v>376808</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>470560</v>
+        <v>470092</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>425474</v>
+        <v>428980</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>525427</v>
+        <v>523763</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>169023</v>
+        <v>169908</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>237231</v>
+        <v>238874</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>208338</v>
+        <v>208422</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>249474</v>
+        <v>246842</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>261653</v>
+        <v>263413</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>286365</v>
+        <v>287602</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>281399</v>
+        <v>281205</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>327824</v>
+        <v>327796</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>422012</v>
+        <v>423294</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>516873</v>
+        <v>516233</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>479498</v>
+        <v>481441</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>570434</v>
+        <v>567936</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>131893</v>
+        <v>131758</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>191918</v>
+        <v>189692</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>175587</v>
+        <v>177274</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>217105</v>
+        <v>217904</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>253056</v>
+        <v>253859</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>336486</v>
+        <v>337292</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>305809</v>
+        <v>303174</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>373609</v>
+        <v>373572</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>392947</v>
+        <v>393894</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>536389</v>
+        <v>536162</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>492762</v>
+        <v>489888</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>598857</v>
+        <v>600035</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>157659</v>
+        <v>158112</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>217678</v>
+        <v>215669</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>201994</v>
+        <v>202915</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>243969</v>
+        <v>244136</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>283846</v>
+        <v>282804</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>361213</v>
+        <v>361691</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>341076</v>
+        <v>341255</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>398670</v>
+        <v>397751</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>433943</v>
+        <v>433521</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>570889</v>
+        <v>572750</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>536409</v>
+        <v>535063</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>634974</v>
+        <v>635967</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>601869</v>
+        <v>602764</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>783333</v>
+        <v>780445</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>760352</v>
+        <v>764074</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>1086166</v>
+        <v>1080143</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>1077281</v>
+        <v>1077316</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>1313500</v>
+        <v>1318449</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>1220451</v>
+        <v>1212863</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>1669498</v>
+        <v>1672112</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1703941</v>
+        <v>1714496</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>2126039</v>
+        <v>2126748</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>2001594</v>
+        <v>2013744</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>2776217</v>
+        <v>2775205</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>691471</v>
+        <v>693707</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>888767</v>
+        <v>888562</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>862252</v>
+        <v>860076</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>1200748</v>
+        <v>1196797</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>1185222</v>
+        <v>1185809</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>1434060</v>
+        <v>1436130</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>1339290</v>
+        <v>1335748</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>1776102</v>
+        <v>1777660</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1853234</v>
+        <v>1853444</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>2288505</v>
+        <v>2285837</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>2166661</v>
+        <v>2163601</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>2942113</v>
+        <v>2938234</v>
       </c>
     </row>
     <row r="36">
